--- a/output/1Y_P93_KFSDIV.xlsx
+++ b/output/1Y_P93_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D2" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.1873</v>
       </c>
       <c r="C3" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D3" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E3" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="F3" s="1">
-        <v>981.6144</v>
+        <v>979.6526</v>
       </c>
       <c r="H3" s="1">
-        <v>10208.7384</v>
+        <v>10167.9168</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10208.7384</v>
+        <v>10167.9168</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0209</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.4058</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E4" s="1">
-        <v>1983.7188</v>
+        <v>1979.7526</v>
       </c>
       <c r="F4" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="H4" s="1">
-        <v>20642.1809</v>
+        <v>20559.731</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20642.1809</v>
+        <v>20559.731</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.0821</v>
+        <v>10.1023</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0214</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>10.2688</v>
       </c>
       <c r="C5" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D5" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E5" s="1">
-        <v>2944.7213</v>
+        <v>2938.8288</v>
       </c>
       <c r="F5" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="H5" s="1">
-        <v>30238.7541</v>
+        <v>30117.9996</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30238.7541</v>
+        <v>30117.9996</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1877</v>
+        <v>10.2081</v>
       </c>
       <c r="M5" s="1">
         <v>0.1</v>
       </c>
       <c r="N5" s="1">
-        <v>178.5347</v>
+        <v>178.1777</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9821.4653</v>
+        <v>-9821.8223</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0132</v>
+        <v>-0.0145</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>10.4938</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E6" s="1">
-        <v>3918.5449</v>
+        <v>3910.7028</v>
       </c>
       <c r="F6" s="1">
-        <v>955.0703</v>
+        <v>953.1586</v>
       </c>
       <c r="H6" s="1">
-        <v>41120.4267</v>
+        <v>40956.0084</v>
       </c>
       <c r="I6" s="1">
-        <v>178.5347</v>
+        <v>178.1777</v>
       </c>
       <c r="J6" s="1">
-        <v>41298.9614</v>
+        <v>41134.1861</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2079</v>
+        <v>10.2283</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10022.3168</v>
+        <v>-10022.2722</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0263</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.5481</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E7" s="1">
-        <v>4873.6152</v>
+        <v>4863.8614</v>
       </c>
       <c r="F7" s="1">
-        <v>950.1538</v>
+        <v>948.2527</v>
       </c>
       <c r="H7" s="1">
-        <v>51407.3808</v>
+        <v>51201.8692</v>
       </c>
       <c r="I7" s="1">
-        <v>156.2179</v>
+        <v>155.9055</v>
       </c>
       <c r="J7" s="1">
-        <v>51563.5987</v>
+        <v>51357.7748</v>
       </c>
       <c r="K7" s="1">
-        <v>50022.3168</v>
+        <v>50022.2722</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2639</v>
+        <v>10.2845</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10022.3168</v>
+        <v>-10022.2722</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0052</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>10.3262</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E8" s="1">
-        <v>5823.769</v>
+        <v>5812.1141</v>
       </c>
       <c r="F8" s="1">
-        <v>970.5716</v>
+        <v>968.6256</v>
       </c>
       <c r="H8" s="1">
-        <v>60137.4033</v>
+        <v>59896.7419</v>
       </c>
       <c r="I8" s="1">
-        <v>133.901</v>
+        <v>133.6333</v>
       </c>
       <c r="J8" s="1">
-        <v>60271.3044</v>
+        <v>60030.3752</v>
       </c>
       <c r="K8" s="1">
-        <v>60044.6337</v>
+        <v>60044.5444</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3103</v>
+        <v>10.3309</v>
       </c>
       <c r="M8" s="1">
         <v>0.25</v>
       </c>
       <c r="N8" s="1">
-        <v>1096.5634</v>
+        <v>1094.3688</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8925.7534</v>
+        <v>-8927.903399999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.021</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>10.462</v>
       </c>
       <c r="C9" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D9" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E9" s="1">
-        <v>6794.3406</v>
+        <v>6780.7397</v>
       </c>
       <c r="F9" s="1">
-        <v>978.9361</v>
+        <v>976.9289</v>
       </c>
       <c r="H9" s="1">
-        <v>71082.3916</v>
+        <v>70798.38129999999</v>
       </c>
       <c r="I9" s="1">
-        <v>1208.1476</v>
+        <v>1205.7299</v>
       </c>
       <c r="J9" s="1">
-        <v>72290.5392</v>
+        <v>72004.1112</v>
       </c>
       <c r="K9" s="1">
-        <v>70066.95050000001</v>
+        <v>70066.8167</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3125</v>
+        <v>10.3332</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10241.6295</v>
+        <v>-10241.146</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0287</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.5775</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E10" s="1">
-        <v>7773.2767</v>
+        <v>7757.6686</v>
       </c>
       <c r="F10" s="1">
-        <v>968.2467</v>
+        <v>966.2644</v>
       </c>
       <c r="H10" s="1">
-        <v>82221.8346</v>
+        <v>81892.27740000001</v>
       </c>
       <c r="I10" s="1">
-        <v>966.5181</v>
+        <v>964.5839</v>
       </c>
       <c r="J10" s="1">
-        <v>83188.3527</v>
+        <v>82856.8613</v>
       </c>
       <c r="K10" s="1">
-        <v>80308.58</v>
+        <v>80307.9626</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3314</v>
+        <v>10.3521</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10241.6295</v>
+        <v>-10241.146</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0109</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>10.7066</v>
       </c>
       <c r="C11" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D11" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E11" s="1">
-        <v>8741.5234</v>
+        <v>8723.933000000001</v>
       </c>
       <c r="F11" s="1">
-        <v>956.5716</v>
+        <v>954.6095</v>
       </c>
       <c r="H11" s="1">
-        <v>93591.9948</v>
+        <v>93216.9688</v>
       </c>
       <c r="I11" s="1">
-        <v>724.8886</v>
+        <v>723.4379</v>
       </c>
       <c r="J11" s="1">
-        <v>94316.88340000001</v>
+        <v>93940.40670000001</v>
       </c>
       <c r="K11" s="1">
-        <v>90550.2096</v>
+        <v>90549.10860000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3586</v>
+        <v>10.3794</v>
       </c>
       <c r="M11" s="1">
         <v>0.2</v>
       </c>
       <c r="N11" s="1">
-        <v>1399.1898</v>
+        <v>1396.3804</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8842.439700000001</v>
+        <v>-8844.765600000001</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0121</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>11.1511</v>
       </c>
       <c r="C12" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D12" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E12" s="1">
-        <v>9698.094999999999</v>
+        <v>9678.5425</v>
       </c>
       <c r="F12" s="1">
-        <v>981.1789</v>
+        <v>979.0429</v>
       </c>
       <c r="H12" s="1">
-        <v>108144.4276</v>
+        <v>107710.5634</v>
       </c>
       <c r="I12" s="1">
-        <v>1882.4489</v>
+        <v>1878.6723</v>
       </c>
       <c r="J12" s="1">
-        <v>110026.8764</v>
+        <v>109589.2357</v>
       </c>
       <c r="K12" s="1">
-        <v>100791.8391</v>
+        <v>100790.2546</v>
       </c>
       <c r="L12" s="1">
-        <v>10.393</v>
+        <v>10.4138</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10941.2244</v>
+        <v>-10939.3362</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0547</v>
+        <v>0.0543</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>11.5294</v>
       </c>
       <c r="C13" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D13" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E13" s="1">
-        <v>10679.274</v>
+        <v>10657.5854</v>
       </c>
       <c r="F13" s="1">
-        <v>948.9765</v>
+        <v>946.9237000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>123125.6213</v>
+        <v>122629.3749</v>
       </c>
       <c r="I13" s="1">
-        <v>941.2243999999999</v>
+        <v>939.3362</v>
       </c>
       <c r="J13" s="1">
-        <v>124066.8458</v>
+        <v>123568.711</v>
       </c>
       <c r="K13" s="1">
-        <v>111733.0635</v>
+        <v>111729.5908</v>
       </c>
       <c r="L13" s="1">
-        <v>10.4626</v>
+        <v>10.4836</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10941.2244</v>
+        <v>-10939.3362</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0337</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>10.9136</v>
       </c>
       <c r="C14" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D14" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E14" s="1">
-        <v>11628.2505</v>
+        <v>11604.5091</v>
       </c>
       <c r="F14" s="1">
-        <v>-11628.2505</v>
+        <v>-11604.5091</v>
       </c>
       <c r="H14" s="1">
-        <v>126906.0742</v>
+        <v>126393.9923</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>126906.0742</v>
+        <v>126393.9923</v>
       </c>
       <c r="K14" s="1">
-        <v>122674.2879</v>
+        <v>122668.9269</v>
       </c>
       <c r="L14" s="1">
-        <v>10.5497</v>
+        <v>10.5708</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4805.6733</v>
+        <v>4795.9134</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>131711.7475</v>
+        <v>131189.9057</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0534</v>
+        <v>-0.0537</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D2" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.1873</v>
       </c>
       <c r="C3" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D3" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E3" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="F3" s="1">
-        <v>961.1242999999999</v>
+        <v>967.068</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10208.7384</v>
+        <v>10167.9168</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10208.7384</v>
+        <v>10167.9168</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9791.2616</v>
+        <v>-9871.5396</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0209</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.4058</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E4" s="1">
-        <v>1963.2287</v>
+        <v>1967.168</v>
       </c>
       <c r="F4" s="1">
-        <v>919.7788</v>
+        <v>921.6138999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20428.9655</v>
+        <v>20429.0393</v>
       </c>
       <c r="I4" s="1">
-        <v>208.7384</v>
+        <v>128.4604</v>
       </c>
       <c r="J4" s="1">
-        <v>20637.7038</v>
+        <v>20557.4998</v>
       </c>
       <c r="K4" s="1">
-        <v>19791.2616</v>
+        <v>19871.5396</v>
       </c>
       <c r="L4" s="1">
-        <v>10.081</v>
+        <v>10.1016</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9571.0345</v>
+        <v>-9609.392</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0212</v>
+        <v>0.0193</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>10.2688</v>
       </c>
       <c r="C5" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D5" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E5" s="1">
-        <v>2883.0076</v>
+        <v>2888.7819</v>
       </c>
       <c r="F5" s="1">
-        <v>1012.2869</v>
+        <v>1014.3045</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29605.028</v>
+        <v>29605.1035</v>
       </c>
       <c r="I5" s="1">
-        <v>637.7038</v>
+        <v>519.0685</v>
       </c>
       <c r="J5" s="1">
-        <v>30242.7318</v>
+        <v>30124.172</v>
       </c>
       <c r="K5" s="1">
-        <v>29362.2962</v>
+        <v>29480.9315</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1846</v>
+        <v>10.2053</v>
       </c>
       <c r="M5" s="1">
         <v>0.1</v>
       </c>
       <c r="N5" s="1">
-        <v>176.6906</v>
+        <v>177.0451</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10218.2814</v>
+        <v>-10259.5393</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0129</v>
+        <v>-0.0142</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>10.4938</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E6" s="1">
-        <v>3895.2945</v>
+        <v>3903.0864</v>
       </c>
       <c r="F6" s="1">
-        <v>869.4237000000001</v>
+        <v>871.186</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>40876.4413</v>
+        <v>40876.2429</v>
       </c>
       <c r="I6" s="1">
-        <v>419.4224</v>
+        <v>259.5292</v>
       </c>
       <c r="J6" s="1">
-        <v>41295.8636</v>
+        <v>41135.7721</v>
       </c>
       <c r="K6" s="1">
-        <v>39757.2682</v>
+        <v>39917.5159</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2065</v>
+        <v>10.2272</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9123.5587</v>
+        <v>-9160.3469</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0262</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.5481</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E7" s="1">
-        <v>4764.7182</v>
+        <v>4774.2724</v>
       </c>
       <c r="F7" s="1">
-        <v>923.51</v>
+        <v>925.3570999999999</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50258.7242</v>
+        <v>50258.7656</v>
       </c>
       <c r="I7" s="1">
-        <v>1295.8636</v>
+        <v>1099.1822</v>
       </c>
       <c r="J7" s="1">
-        <v>51554.5878</v>
+        <v>51357.9478</v>
       </c>
       <c r="K7" s="1">
-        <v>48880.8269</v>
+        <v>49077.8629</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2589</v>
+        <v>10.2797</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9741.275799999999</v>
+        <v>-9780.2845</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.005</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>10.3262</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E8" s="1">
-        <v>5688.2282</v>
+        <v>5699.6295</v>
       </c>
       <c r="F8" s="1">
-        <v>1090.6449</v>
+        <v>1092.8599</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58737.7822</v>
+        <v>58737.5321</v>
       </c>
       <c r="I8" s="1">
-        <v>1554.5878</v>
+        <v>1318.8977</v>
       </c>
       <c r="J8" s="1">
-        <v>60292.37</v>
+        <v>60056.4298</v>
       </c>
       <c r="K8" s="1">
-        <v>58622.1027</v>
+        <v>58858.1474</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3059</v>
+        <v>10.3267</v>
       </c>
       <c r="M8" s="1">
         <v>0.25</v>
       </c>
       <c r="N8" s="1">
-        <v>1072.0616</v>
+        <v>1074.2113</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10190.1562</v>
+        <v>-10233.5011</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0205</v>
+        <v>-0.0212</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>10.462</v>
       </c>
       <c r="C9" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D9" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E9" s="1">
-        <v>6778.8732</v>
+        <v>6792.4894</v>
       </c>
       <c r="F9" s="1">
-        <v>867.8483</v>
+        <v>869.5385</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70920.571</v>
+        <v>70921.0616</v>
       </c>
       <c r="I9" s="1">
-        <v>1364.4316</v>
+        <v>1085.3967</v>
       </c>
       <c r="J9" s="1">
-        <v>72285.00260000001</v>
+        <v>72006.4583</v>
       </c>
       <c r="K9" s="1">
-        <v>69884.32060000001</v>
+        <v>70165.8597</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3091</v>
+        <v>10.3299</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9079.429</v>
+        <v>-9115.372100000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0283</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.5775</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E10" s="1">
-        <v>7646.7215</v>
+        <v>7662.0279</v>
       </c>
       <c r="F10" s="1">
-        <v>861.9053</v>
+        <v>863.6866</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80883.1963</v>
+        <v>80882.66559999999</v>
       </c>
       <c r="I10" s="1">
-        <v>2285.0026</v>
+        <v>1970.0246</v>
       </c>
       <c r="J10" s="1">
-        <v>83168.1989</v>
+        <v>82852.6902</v>
       </c>
       <c r="K10" s="1">
-        <v>78963.7496</v>
+        <v>79281.23179999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3265</v>
+        <v>10.3473</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9116.8037</v>
+        <v>-9153.9547</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0107</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>10.7066</v>
       </c>
       <c r="C11" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D11" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E11" s="1">
-        <v>8508.6268</v>
+        <v>8525.7145</v>
       </c>
       <c r="F11" s="1">
-        <v>831.4064</v>
+        <v>833.0247000000001</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>91098.46369999999</v>
+        <v>91098.96460000001</v>
       </c>
       <c r="I11" s="1">
-        <v>3168.1989</v>
+        <v>2816.0699</v>
       </c>
       <c r="J11" s="1">
-        <v>94266.6626</v>
+        <v>93915.03449999999</v>
       </c>
       <c r="K11" s="1">
-        <v>88080.5533</v>
+        <v>88435.1865</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3519</v>
+        <v>10.3728</v>
       </c>
       <c r="M11" s="1">
         <v>0.2</v>
       </c>
       <c r="N11" s="1">
-        <v>1376.4099</v>
+        <v>1379.165</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7525.1264</v>
+        <v>-7557.6071</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0118</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>11.1511</v>
       </c>
       <c r="C12" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D12" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E12" s="1">
-        <v>9340.033299999999</v>
+        <v>9358.7392</v>
       </c>
       <c r="F12" s="1">
-        <v>524.4644</v>
+        <v>525.5251</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>104151.6448</v>
+        <v>104151.5367</v>
       </c>
       <c r="I12" s="1">
-        <v>5643.0725</v>
+        <v>5258.4628</v>
       </c>
       <c r="J12" s="1">
-        <v>109794.7173</v>
+        <v>109409.9995</v>
       </c>
       <c r="K12" s="1">
-        <v>96982.08960000001</v>
+        <v>97371.9587</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3835</v>
+        <v>10.4044</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5848.3552</v>
+        <v>-5871.9543</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.053</v>
+        <v>0.0529</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>11.5294</v>
       </c>
       <c r="C13" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D13" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E13" s="1">
-        <v>9864.4977</v>
+        <v>9884.264300000001</v>
       </c>
       <c r="F13" s="1">
-        <v>543.6762</v>
+        <v>544.8049999999999</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>113731.7395</v>
+        <v>113731.3098</v>
       </c>
       <c r="I13" s="1">
-        <v>9794.7173</v>
+        <v>9386.5085</v>
       </c>
       <c r="J13" s="1">
-        <v>123526.4567</v>
+        <v>123117.8183</v>
       </c>
       <c r="K13" s="1">
-        <v>102830.4448</v>
+        <v>103243.9129</v>
       </c>
       <c r="L13" s="1">
-        <v>10.4243</v>
+        <v>10.4453</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6268.3149</v>
+        <v>-6293.8602</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0312</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>10.9136</v>
       </c>
       <c r="C14" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D14" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E14" s="1">
-        <v>10408.1739</v>
+        <v>10429.0693</v>
       </c>
       <c r="F14" s="1">
-        <v>-10408.1739</v>
+        <v>-10429.0693</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>113590.6465</v>
+        <v>113591.3369</v>
       </c>
       <c r="I14" s="1">
-        <v>13526.4024</v>
+        <v>13092.6483</v>
       </c>
       <c r="J14" s="1">
-        <v>127117.0489</v>
+        <v>126683.9852</v>
       </c>
       <c r="K14" s="1">
-        <v>109098.7597</v>
+        <v>109537.7732</v>
       </c>
       <c r="L14" s="1">
-        <v>10.482</v>
+        <v>10.5031</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4439.024</v>
+        <v>4447.9189</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118029.6705</v>
+        <v>118039.2558</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.048</v>
+        <v>-0.0483</v>
       </c>
     </row>
   </sheetData>
@@ -2152,7 +2152,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -2224,16 +2224,16 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D2" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.1873</v>
       </c>
       <c r="C3" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D3" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E3" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="F3" s="1">
-        <v>966.0324000000001</v>
+        <v>971.9859</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10208.7384</v>
+        <v>10167.9168</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10208.7384</v>
+        <v>10167.9168</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9841.2616</v>
+        <v>-9921.7402</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0209</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.4058</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E4" s="1">
-        <v>1968.1368</v>
+        <v>1972.0859</v>
       </c>
       <c r="F4" s="1">
-        <v>929.3098</v>
+        <v>931.164</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20480.0379</v>
+        <v>20480.1119</v>
       </c>
       <c r="I4" s="1">
-        <v>158.7384</v>
+        <v>78.2598</v>
       </c>
       <c r="J4" s="1">
-        <v>20638.7762</v>
+        <v>20558.3717</v>
       </c>
       <c r="K4" s="1">
-        <v>19841.2616</v>
+        <v>19921.7402</v>
       </c>
       <c r="L4" s="1">
-        <v>10.0812</v>
+        <v>10.1019</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9670.212100000001</v>
+        <v>-9708.9676</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0213</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>10.2688</v>
       </c>
       <c r="C5" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D5" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E5" s="1">
-        <v>2897.4466</v>
+        <v>2903.2499</v>
       </c>
       <c r="F5" s="1">
-        <v>1021.3975</v>
+        <v>1007.7645</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29753.2998</v>
+        <v>29753.3757</v>
       </c>
       <c r="I5" s="1">
-        <v>488.5262</v>
+        <v>369.2922</v>
       </c>
       <c r="J5" s="1">
-        <v>30241.8261</v>
+        <v>30122.6679</v>
       </c>
       <c r="K5" s="1">
-        <v>29511.4738</v>
+        <v>29630.7078</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1853</v>
+        <v>10.206</v>
       </c>
       <c r="M5" s="1">
         <v>0.1</v>
       </c>
       <c r="N5" s="1">
-        <v>177.1323</v>
+        <v>177.4877</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10311.3939</v>
+        <v>-10191.8044</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.013</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>10.4938</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E6" s="1">
-        <v>3918.8441</v>
+        <v>3911.0144</v>
       </c>
       <c r="F6" s="1">
-        <v>893.7602000000001</v>
+        <v>911.24</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41123.566</v>
+        <v>40959.2715</v>
       </c>
       <c r="I6" s="1">
-        <v>177.1323</v>
+        <v>177.4877</v>
       </c>
       <c r="J6" s="1">
-        <v>41300.6983</v>
+        <v>41136.7592</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2071</v>
+        <v>10.2275</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9378.9403</v>
+        <v>-9581.506799999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0263</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.5481</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E7" s="1">
-        <v>4812.6042</v>
+        <v>4822.2544</v>
       </c>
       <c r="F7" s="1">
-        <v>947.2026</v>
+        <v>949.0972</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50763.8307</v>
+        <v>50763.8724</v>
       </c>
       <c r="I7" s="1">
-        <v>798.192</v>
+        <v>595.9809</v>
       </c>
       <c r="J7" s="1">
-        <v>51562.0227</v>
+        <v>51359.8534</v>
       </c>
       <c r="K7" s="1">
-        <v>49378.9403</v>
+        <v>49581.5068</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2603</v>
+        <v>10.2818</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9991.188099999999</v>
+        <v>-10031.1982</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0051</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>10.3262</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E8" s="1">
-        <v>5759.8069</v>
+        <v>5771.3516</v>
       </c>
       <c r="F8" s="1">
-        <v>1046.5616</v>
+        <v>1021.0578</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59476.9176</v>
+        <v>59476.6644</v>
       </c>
       <c r="I8" s="1">
-        <v>807.0039</v>
+        <v>564.7827</v>
       </c>
       <c r="J8" s="1">
-        <v>60283.9215</v>
+        <v>60041.4471</v>
       </c>
       <c r="K8" s="1">
-        <v>59370.1284</v>
+        <v>59612.7051</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3077</v>
+        <v>10.3291</v>
       </c>
       <c r="M8" s="1">
         <v>0.25</v>
       </c>
       <c r="N8" s="1">
-        <v>1082.836</v>
+        <v>1085.0072</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9724.168</v>
+        <v>-9479.7754</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0208</v>
+        <v>-0.0215</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>10.462</v>
       </c>
       <c r="C9" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D9" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E9" s="1">
-        <v>6806.3684</v>
+        <v>6792.4094</v>
       </c>
       <c r="F9" s="1">
-        <v>975.5173</v>
+        <v>1005.0533</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71208.2264</v>
+        <v>70920.226</v>
       </c>
       <c r="I9" s="1">
-        <v>1082.836</v>
+        <v>1085.0072</v>
       </c>
       <c r="J9" s="1">
-        <v>72291.06230000001</v>
+        <v>72005.2332</v>
       </c>
       <c r="K9" s="1">
-        <v>70177.1323</v>
+        <v>70177.4877</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3105</v>
+        <v>10.3318</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10205.8615</v>
+        <v>-10535.9736</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0286</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.5775</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E10" s="1">
-        <v>7781.8857</v>
+        <v>7797.4627</v>
       </c>
       <c r="F10" s="1">
-        <v>898.914</v>
+        <v>900.7704</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82312.8956</v>
+        <v>82312.3556</v>
       </c>
       <c r="I10" s="1">
-        <v>876.9745</v>
+        <v>549.0336</v>
       </c>
       <c r="J10" s="1">
-        <v>83189.8701</v>
+        <v>82861.38920000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80382.9938</v>
+        <v>80713.4613</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3295</v>
+        <v>10.3512</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9508.2626</v>
+        <v>-9546.9954</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0109</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>10.7066</v>
       </c>
       <c r="C11" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D11" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E11" s="1">
-        <v>8680.7996</v>
+        <v>8698.233099999999</v>
       </c>
       <c r="F11" s="1">
-        <v>872.211</v>
+        <v>873.91</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92941.8495</v>
+        <v>92942.3605</v>
       </c>
       <c r="I11" s="1">
-        <v>1368.7118</v>
+        <v>1002.0382</v>
       </c>
       <c r="J11" s="1">
-        <v>94310.56140000001</v>
+        <v>93944.3988</v>
       </c>
       <c r="K11" s="1">
-        <v>89891.2564</v>
+        <v>90260.4567</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3552</v>
+        <v>10.3769</v>
       </c>
       <c r="M11" s="1">
         <v>0.2</v>
       </c>
       <c r="N11" s="1">
-        <v>1400.7394</v>
+        <v>1403.5433</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7937.6751</v>
+        <v>-7971.851</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.012</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>11.1511</v>
       </c>
       <c r="C12" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D12" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E12" s="1">
-        <v>9553.010700000001</v>
+        <v>9572.1432</v>
       </c>
       <c r="F12" s="1">
-        <v>561.8359</v>
+        <v>562.9716</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>106526.5773</v>
+        <v>106526.4668</v>
       </c>
       <c r="I12" s="1">
-        <v>3431.0367</v>
+        <v>3030.1873</v>
       </c>
       <c r="J12" s="1">
-        <v>109957.614</v>
+        <v>109556.654</v>
       </c>
       <c r="K12" s="1">
-        <v>99229.671</v>
+        <v>99635.851</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3873</v>
+        <v>10.4089</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6265.0881</v>
+        <v>-6290.3634</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0541</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>11.5294</v>
       </c>
       <c r="C13" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D13" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E13" s="1">
-        <v>10114.8466</v>
+        <v>10135.1148</v>
       </c>
       <c r="F13" s="1">
-        <v>584.3766000000001</v>
+        <v>585.5881000000001</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>116618.1119</v>
+        <v>116617.6712</v>
       </c>
       <c r="I13" s="1">
-        <v>7165.9486</v>
+        <v>6739.8238</v>
       </c>
       <c r="J13" s="1">
-        <v>123784.0605</v>
+        <v>123357.495</v>
       </c>
       <c r="K13" s="1">
-        <v>105494.7591</v>
+        <v>105926.2145</v>
       </c>
       <c r="L13" s="1">
-        <v>10.4297</v>
+        <v>10.4514</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6737.5703</v>
+        <v>-6765.0067</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0319</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>10.9136</v>
       </c>
       <c r="C14" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D14" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E14" s="1">
-        <v>10699.2232</v>
+        <v>10720.7029</v>
       </c>
       <c r="F14" s="1">
-        <v>-10699.2232</v>
+        <v>-10720.7029</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>116767.0421</v>
+        <v>116767.7518</v>
       </c>
       <c r="I14" s="1">
-        <v>10428.3783</v>
+        <v>9974.8171</v>
       </c>
       <c r="J14" s="1">
-        <v>127195.4204</v>
+        <v>126742.5689</v>
       </c>
       <c r="K14" s="1">
-        <v>112232.3294</v>
+        <v>112691.2211</v>
       </c>
       <c r="L14" s="1">
-        <v>10.4898</v>
+        <v>10.5116</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4551.6809</v>
+        <v>4560.8017</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121318.723</v>
+        <v>121328.5535</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0492</v>
+        <v>-0.0496</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D2" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.1873</v>
       </c>
       <c r="C3" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D3" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E3" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="F3" s="1">
-        <v>970.9405</v>
+        <v>976.9038</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10208.7384</v>
+        <v>10167.9168</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10208.7384</v>
+        <v>10167.9168</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9891.2616</v>
+        <v>-9971.9409</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0209</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.4058</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E4" s="1">
-        <v>1973.0449</v>
+        <v>1977.0038</v>
       </c>
       <c r="F4" s="1">
-        <v>938.8889</v>
+        <v>940.7622</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20531.1103</v>
+        <v>20531.1845</v>
       </c>
       <c r="I4" s="1">
-        <v>108.7384</v>
+        <v>28.0591</v>
       </c>
       <c r="J4" s="1">
-        <v>20639.8487</v>
+        <v>20559.2436</v>
       </c>
       <c r="K4" s="1">
-        <v>19891.2616</v>
+        <v>19971.9409</v>
       </c>
       <c r="L4" s="1">
-        <v>10.0815</v>
+        <v>10.1021</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9769.8897</v>
+        <v>-9809.0453</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0213</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>10.2688</v>
       </c>
       <c r="C5" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D5" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E5" s="1">
-        <v>2911.9337</v>
+        <v>2917.766</v>
       </c>
       <c r="F5" s="1">
-        <v>1006.8215</v>
+        <v>993.1594</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29902.0651</v>
+        <v>29902.1414</v>
       </c>
       <c r="I5" s="1">
-        <v>338.8487</v>
+        <v>219.0139</v>
       </c>
       <c r="J5" s="1">
-        <v>30240.9137</v>
+        <v>30121.1552</v>
       </c>
       <c r="K5" s="1">
-        <v>29661.1513</v>
+        <v>29780.9861</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1861</v>
+        <v>10.2068</v>
       </c>
       <c r="M5" s="1">
         <v>0.1</v>
       </c>
       <c r="N5" s="1">
-        <v>177.574</v>
+        <v>177.9303</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10161.2746</v>
+        <v>-10041.0835</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.013</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>10.4938</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E6" s="1">
-        <v>3918.7552</v>
+        <v>3910.9254</v>
       </c>
       <c r="F6" s="1">
-        <v>942.2151</v>
+        <v>959.7921</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41122.6337</v>
+        <v>40958.3391</v>
       </c>
       <c r="I6" s="1">
-        <v>177.574</v>
+        <v>177.9303</v>
       </c>
       <c r="J6" s="1">
-        <v>41300.2077</v>
+        <v>41136.2695</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2073</v>
+        <v>10.2278</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9887.4164</v>
+        <v>-10092.0222</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0263</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.5481</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E7" s="1">
-        <v>4860.9703</v>
+        <v>4870.7175</v>
       </c>
       <c r="F7" s="1">
-        <v>971.374</v>
+        <v>954.2736</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51274.0008</v>
+        <v>51274.043</v>
       </c>
       <c r="I7" s="1">
-        <v>290.1576</v>
+        <v>85.9081</v>
       </c>
       <c r="J7" s="1">
-        <v>51564.1584</v>
+        <v>51359.9511</v>
       </c>
       <c r="K7" s="1">
-        <v>49887.4164</v>
+        <v>50092.0222</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2629</v>
+        <v>10.2843</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10246.1498</v>
+        <v>-10085.9081</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0051</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>10.3262</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E8" s="1">
-        <v>5832.3443</v>
+        <v>5824.991</v>
       </c>
       <c r="F8" s="1">
-        <v>972.6722</v>
+        <v>966.473</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>60225.9534</v>
+        <v>60029.4452</v>
       </c>
       <c r="I8" s="1">
-        <v>44.0078</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60269.9612</v>
+        <v>60029.4452</v>
       </c>
       <c r="K8" s="1">
-        <v>60133.5663</v>
+        <v>60177.9303</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3104</v>
+        <v>10.331</v>
       </c>
       <c r="M8" s="1">
         <v>0.25</v>
       </c>
       <c r="N8" s="1">
-        <v>1093.7183</v>
+        <v>1095.9114</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8950.289500000001</v>
+        <v>-8904.088599999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.021</v>
+        <v>-0.0217</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>10.462</v>
       </c>
       <c r="C9" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D9" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E9" s="1">
-        <v>6805.0165</v>
+        <v>6791.4641</v>
       </c>
       <c r="F9" s="1">
-        <v>1060.3822</v>
+        <v>1058.4672</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>71194.0824</v>
+        <v>70910.3558</v>
       </c>
       <c r="I9" s="1">
-        <v>1093.7183</v>
+        <v>1095.9114</v>
       </c>
       <c r="J9" s="1">
-        <v>72287.80070000001</v>
+        <v>72006.2672</v>
       </c>
       <c r="K9" s="1">
-        <v>70177.57399999999</v>
+        <v>70177.93030000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3126</v>
+        <v>10.3333</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11093.7183</v>
+        <v>-11095.9114</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0287</v>
+        <v>0.0282</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.5775</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E10" s="1">
-        <v>7865.3987</v>
+        <v>7849.9313</v>
       </c>
       <c r="F10" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>83196.2543</v>
+        <v>82866.2295</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>83196.2543</v>
+        <v>82866.2295</v>
       </c>
       <c r="K10" s="1">
-        <v>81271.29240000001</v>
+        <v>81273.84179999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3328</v>
+        <v>10.3534</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.011</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>10.7066</v>
       </c>
       <c r="C11" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D11" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E11" s="1">
-        <v>8810.801600000001</v>
+        <v>8793.4432</v>
       </c>
       <c r="F11" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>94333.7288</v>
+        <v>93959.6995</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>94333.7288</v>
+        <v>93959.6995</v>
       </c>
       <c r="K11" s="1">
-        <v>91271.29240000001</v>
+        <v>91273.84179999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.359</v>
+        <v>10.3798</v>
       </c>
       <c r="M11" s="1">
         <v>0.2</v>
       </c>
       <c r="N11" s="1">
-        <v>1415.7718</v>
+        <v>1412.9876</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8584.2282</v>
+        <v>-8587.0124</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0122</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>11.1511</v>
       </c>
       <c r="C12" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D12" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E12" s="1">
-        <v>9744.805</v>
+        <v>9725.574699999999</v>
       </c>
       <c r="F12" s="1">
-        <v>628.0145</v>
+        <v>668.0299</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>108665.2946</v>
+        <v>108233.976</v>
       </c>
       <c r="I12" s="1">
-        <v>1415.7718</v>
+        <v>1412.9876</v>
       </c>
       <c r="J12" s="1">
-        <v>110081.0663</v>
+        <v>109646.9636</v>
       </c>
       <c r="K12" s="1">
-        <v>101271.2924</v>
+        <v>101273.8418</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3923</v>
+        <v>10.4131</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7003.0521</v>
+        <v>-7464.2316</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0551</v>
+        <v>0.0547</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>11.5294</v>
       </c>
       <c r="C13" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D13" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E13" s="1">
-        <v>10372.8194</v>
+        <v>10393.6046</v>
       </c>
       <c r="F13" s="1">
-        <v>627.322</v>
+        <v>628.6206</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>119592.3843</v>
+        <v>119591.9324</v>
       </c>
       <c r="I13" s="1">
-        <v>4412.7197</v>
+        <v>3948.756</v>
       </c>
       <c r="J13" s="1">
-        <v>124005.1039</v>
+        <v>123540.6884</v>
       </c>
       <c r="K13" s="1">
-        <v>108274.3444</v>
+        <v>108738.0734</v>
       </c>
       <c r="L13" s="1">
-        <v>10.4383</v>
+        <v>10.462</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7232.7086</v>
+        <v>-7262.14</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0327</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>10.9136</v>
       </c>
       <c r="C14" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D14" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E14" s="1">
-        <v>11000.1414</v>
+        <v>11022.2252</v>
       </c>
       <c r="F14" s="1">
-        <v>-11000.1414</v>
+        <v>-11022.2252</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>120051.1431</v>
+        <v>120051.8727</v>
       </c>
       <c r="I14" s="1">
-        <v>7180.0111</v>
+        <v>6686.616</v>
       </c>
       <c r="J14" s="1">
-        <v>127231.1541</v>
+        <v>126738.4887</v>
       </c>
       <c r="K14" s="1">
-        <v>115507.053</v>
+        <v>116000.2134</v>
       </c>
       <c r="L14" s="1">
-        <v>10.5005</v>
+        <v>10.5242</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4667.7687</v>
+        <v>4677.1221</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124718.9118</v>
+        <v>124728.9948</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0505</v>
+        <v>-0.0509</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D2" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.1873</v>
       </c>
       <c r="C3" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D3" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E3" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="F3" s="1">
-        <v>975.8484999999999</v>
+        <v>981.8217</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10208.7384</v>
+        <v>10167.9168</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10208.7384</v>
+        <v>10167.9168</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9941.2616</v>
+        <v>-10022.1415</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0209</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.4058</v>
       </c>
       <c r="C4" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D4" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E4" s="1">
-        <v>1977.9529</v>
+        <v>1981.9217</v>
       </c>
       <c r="F4" s="1">
-        <v>948.516</v>
+        <v>950.4086</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20582.1827</v>
+        <v>20582.2571</v>
       </c>
       <c r="I4" s="1">
-        <v>58.7384</v>
+        <v>-22.1415</v>
       </c>
       <c r="J4" s="1">
-        <v>20640.9211</v>
+        <v>20560.1156</v>
       </c>
       <c r="K4" s="1">
-        <v>19941.2616</v>
+        <v>20022.1415</v>
       </c>
       <c r="L4" s="1">
-        <v>10.0818</v>
+        <v>10.1024</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9870.067300000001</v>
+        <v>-9909.624900000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0214</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>10.2688</v>
       </c>
       <c r="C5" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D5" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E5" s="1">
-        <v>2926.4689</v>
+        <v>2932.3303</v>
       </c>
       <c r="F5" s="1">
-        <v>992.1969</v>
+        <v>978.5054</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>30051.3238</v>
+        <v>30051.4005</v>
       </c>
       <c r="I5" s="1">
-        <v>188.6711</v>
+        <v>68.2336</v>
       </c>
       <c r="J5" s="1">
-        <v>30239.9948</v>
+        <v>30119.634</v>
       </c>
       <c r="K5" s="1">
-        <v>29811.3289</v>
+        <v>29931.7664</v>
       </c>
       <c r="L5" s="1">
-        <v>10.1868</v>
+        <v>10.2075</v>
       </c>
       <c r="M5" s="1">
         <v>0.1</v>
       </c>
       <c r="N5" s="1">
-        <v>178.0158</v>
+        <v>178.373</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10010.6553</v>
+        <v>-9889.8606</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0131</v>
+        <v>-0.0144</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>10.4938</v>
       </c>
       <c r="C6" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D6" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E6" s="1">
-        <v>3918.6657</v>
+        <v>3910.8357</v>
       </c>
       <c r="F6" s="1">
-        <v>969.9075</v>
+        <v>968.0044</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41121.6946</v>
+        <v>40957.4</v>
       </c>
       <c r="I6" s="1">
-        <v>178.0158</v>
+        <v>178.373</v>
       </c>
       <c r="J6" s="1">
-        <v>41299.7104</v>
+        <v>41135.773</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.2076</v>
+        <v>10.228</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10178.0158</v>
+        <v>-10178.373</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0263</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.5481</v>
       </c>
       <c r="C7" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D7" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E7" s="1">
-        <v>4888.5733</v>
+        <v>4878.8401</v>
       </c>
       <c r="F7" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51565.1599</v>
+        <v>51359.55</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>51565.1599</v>
+        <v>51359.55</v>
       </c>
       <c r="K7" s="1">
-        <v>50178.0158</v>
+        <v>50178.373</v>
       </c>
       <c r="L7" s="1">
-        <v>10.2643</v>
+        <v>10.2849</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0052</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>10.3262</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E8" s="1">
-        <v>5836.6113</v>
+        <v>5824.9855</v>
       </c>
       <c r="F8" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60270.0159</v>
+        <v>60029.3883</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60270.0159</v>
+        <v>60029.3883</v>
       </c>
       <c r="K8" s="1">
-        <v>60178.0158</v>
+        <v>60178.373</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3104</v>
+        <v>10.3311</v>
       </c>
       <c r="M8" s="1">
         <v>0.25</v>
       </c>
       <c r="N8" s="1">
-        <v>1099.929</v>
+        <v>1097.739</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8900.071</v>
+        <v>-8902.261</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.021</v>
+        <v>-0.0217</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>10.462</v>
       </c>
       <c r="C9" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D9" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E9" s="1">
-        <v>6805.0218</v>
+        <v>6791.4586</v>
       </c>
       <c r="F9" s="1">
-        <v>1060.9758</v>
+        <v>1058.6415</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>71194.1378</v>
+        <v>70910.2981</v>
       </c>
       <c r="I9" s="1">
-        <v>1099.929</v>
+        <v>1097.739</v>
       </c>
       <c r="J9" s="1">
-        <v>72294.0668</v>
+        <v>72008.0371</v>
       </c>
       <c r="K9" s="1">
-        <v>70178.01579999999</v>
+        <v>70178.37300000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3127</v>
+        <v>10.3333</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11099.929</v>
+        <v>-11097.739</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0288</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.5775</v>
       </c>
       <c r="C10" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D10" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E10" s="1">
-        <v>7865.9976</v>
+        <v>7850.1001</v>
       </c>
       <c r="F10" s="1">
-        <v>945.403</v>
+        <v>943.5119</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>83202.5895</v>
+        <v>82868.0116</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>83202.5895</v>
+        <v>82868.0116</v>
       </c>
       <c r="K10" s="1">
-        <v>81277.9448</v>
+        <v>81276.11199999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3328</v>
+        <v>10.3535</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>-10000</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.011</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>10.7066</v>
       </c>
       <c r="C11" s="1">
-        <v>10.7066</v>
+        <v>10.6852</v>
       </c>
       <c r="D11" s="1">
-        <v>10.7066</v>
+        <v>10.7281</v>
       </c>
       <c r="E11" s="1">
-        <v>8811.400600000001</v>
+        <v>8793.611999999999</v>
       </c>
       <c r="F11" s="1">
-        <v>934.0033</v>
+        <v>932.1315</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>94340.1413</v>
+        <v>93961.5033</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>94340.1413</v>
+        <v>93961.5033</v>
       </c>
       <c r="K11" s="1">
-        <v>91277.9448</v>
+        <v>91276.11199999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3591</v>
+        <v>10.3798</v>
       </c>
       <c r="M11" s="1">
         <v>0.2</v>
       </c>
       <c r="N11" s="1">
-        <v>1415.8796</v>
+        <v>1413.018</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8584.1204</v>
+        <v>-8586.982</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0122</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>11.1511</v>
       </c>
       <c r="C12" s="1">
-        <v>11.1511</v>
+        <v>11.1288</v>
       </c>
       <c r="D12" s="1">
-        <v>11.1511</v>
+        <v>11.1735</v>
       </c>
       <c r="E12" s="1">
-        <v>9745.403899999999</v>
+        <v>9725.7435</v>
       </c>
       <c r="F12" s="1">
-        <v>893.2439000000001</v>
+        <v>934.222</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>108671.9734</v>
+        <v>108235.8547</v>
       </c>
       <c r="I12" s="1">
-        <v>1415.8796</v>
+        <v>1413.018</v>
       </c>
       <c r="J12" s="1">
-        <v>110087.8529</v>
+        <v>109648.8727</v>
       </c>
       <c r="K12" s="1">
-        <v>101277.9448</v>
+        <v>101276.112</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3924</v>
+        <v>10.4132</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9960.651599999999</v>
+        <v>-10438.53</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0551</v>
+        <v>0.0547</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>11.5294</v>
       </c>
       <c r="C13" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D13" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E13" s="1">
-        <v>10638.6478</v>
+        <v>10659.9656</v>
       </c>
       <c r="F13" s="1">
-        <v>672.6186</v>
+        <v>674.0092</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>122657.2254</v>
+        <v>122656.7619</v>
       </c>
       <c r="I13" s="1">
-        <v>1455.228</v>
+        <v>974.4880000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>124112.4534</v>
+        <v>123631.25</v>
       </c>
       <c r="K13" s="1">
-        <v>111238.5963</v>
+        <v>111714.642</v>
       </c>
       <c r="L13" s="1">
-        <v>10.4561</v>
+        <v>10.4798</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7754.9562</v>
+        <v>-7786.4916</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0335</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>10.9136</v>
       </c>
       <c r="C14" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D14" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E14" s="1">
-        <v>11311.2664</v>
+        <v>11333.9748</v>
       </c>
       <c r="F14" s="1">
-        <v>-11311.2664</v>
+        <v>-11333.9748</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>123446.6365</v>
+        <v>123447.3868</v>
       </c>
       <c r="I14" s="1">
-        <v>3700.2718</v>
+        <v>3187.9964</v>
       </c>
       <c r="J14" s="1">
-        <v>127146.9083</v>
+        <v>126635.3832</v>
       </c>
       <c r="K14" s="1">
-        <v>118993.5525</v>
+        <v>119501.1336</v>
       </c>
       <c r="L14" s="1">
-        <v>10.5199</v>
+        <v>10.5436</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4787.3915</v>
+        <v>4796.9845</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128234.028</v>
+        <v>128244.3713</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0519</v>
+        <v>-0.0524</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4451,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5497</v>
+        <v>10.5708</v>
       </c>
       <c r="D3" s="1">
-        <v>10.482</v>
+        <v>10.5031</v>
       </c>
       <c r="E3" s="1">
-        <v>10.4898</v>
+        <v>10.5116</v>
       </c>
       <c r="F3" s="1">
-        <v>10.5005</v>
+        <v>10.5242</v>
       </c>
       <c r="G3" s="1">
-        <v>10.5199</v>
+        <v>10.5436</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0936</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1264</v>
+        <v>0.114</v>
       </c>
       <c r="D4" s="3">
-        <v>0.127</v>
+        <v>0.1155</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1281</v>
+        <v>0.1164</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1288</v>
+        <v>0.1167</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1284</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.0864</v>
       </c>
       <c r="C5" s="3">
-        <v>0.09470000000000001</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0893</v>
+        <v>0.0892</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0911</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0927</v>
+        <v>0.0925</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0939</v>
+        <v>0.0936</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.8488</v>
       </c>
       <c r="C6" s="4">
-        <v>1.12</v>
+        <v>0.9929</v>
       </c>
       <c r="D6" s="4">
-        <v>1.1934</v>
+        <v>1.0665</v>
       </c>
       <c r="E6" s="4">
-        <v>1.1841</v>
+        <v>1.0562</v>
       </c>
       <c r="F6" s="4">
-        <v>1.1704</v>
+        <v>1.0417</v>
       </c>
       <c r="G6" s="4">
-        <v>1.151</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1865</v>
+        <v>0.178</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1923</v>
+        <v>0.1843</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1921</v>
+        <v>0.184</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1917</v>
+        <v>0.1834</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1905</v>
+        <v>0.1821</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7479.9612</v>
+        <v>7464.8403</v>
       </c>
       <c r="D8" s="1">
-        <v>7064.186</v>
+        <v>7078.3404</v>
       </c>
       <c r="E8" s="1">
-        <v>7212.3886</v>
+        <v>7226.8399</v>
       </c>
       <c r="F8" s="1">
-        <v>7354.8329</v>
+        <v>7363.9515</v>
       </c>
       <c r="G8" s="1">
-        <v>7481.2158</v>
+        <v>7486.1145</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P93_KFSDIV.xlsx
+++ b/output/1Y_P93_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.978999999999999</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1873</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4058</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.2688</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4938</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.5481</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3262</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.462</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5775</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.7066</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.1511</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.5294</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.9136</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.978999999999999</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1873</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4058</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.2688</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4938</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.5481</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3262</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.462</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5775</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.7066</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.1511</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.5294</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.9136</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.978999999999999</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1873</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4058</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.2688</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4938</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.5481</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3262</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.462</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5775</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.7066</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.1511</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.5294</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.9136</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.978999999999999</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1873</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4058</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.2688</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4938</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.5481</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3262</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.462</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5775</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.7066</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.1511</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.5294</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.9136</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.978999999999999</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.1873</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.4058</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.2688</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>10.4938</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.5481</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.3262</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.462</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.5775</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.7066</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>11.1511</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11.5294</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.9136</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>8264.6517</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0302</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1606</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1288</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.097</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.064</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
